--- a/110/110.xlsx
+++ b/110/110.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">Q 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q 06</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -339,7 +345,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,7 +354,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="9.57"/>
@@ -389,8 +395,12 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -430,6 +440,12 @@
       <c r="J2" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="K2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -464,6 +480,12 @@
       <c r="J3" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -500,6 +522,14 @@
         <f aca="false">(1/3)*10</f>
         <v>3.33333333333333</v>
       </c>
+      <c r="K4" s="3" t="n">
+        <f aca="false">(4/5)*10</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -536,6 +566,14 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
+      <c r="K5" s="3" t="n">
+        <f aca="false">(3/5)*10</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -572,6 +610,14 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
+      <c r="K6" s="3" t="n">
+        <f aca="false">(4/5)*10</f>
+        <v>8</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -606,6 +652,12 @@
       <c r="J7" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -642,6 +694,14 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
+      <c r="K8" s="3" t="n">
+        <f aca="false">(3/5)*10</f>
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <f aca="false">(2/3)*10</f>
+        <v>6.66666666666667</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -678,19 +738,25 @@
         <f aca="false">(0/3)*10</f>
         <v>0</v>
       </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -701,22 +767,22 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H13" s="0"/>
     </row>
@@ -725,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">SUM(B2:J2)</f>
+        <f aca="false">SUM(B2:L2)</f>
         <v>0</v>
       </c>
       <c r="C14" s="10" t="n">
@@ -753,12 +819,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">SUM(B3:J3)</f>
+        <f aca="false">SUM(B3:L3)</f>
         <v>15.5</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>7.75</v>
+        <v>6.34090909090909</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>7</v>
@@ -768,11 +834,11 @@
       </c>
       <c r="F15" s="11" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>14.75</v>
+        <v>13.3409090909091</v>
       </c>
       <c r="G15" s="12" t="n">
         <f aca="false">((F15-F22)*50)/(F23-F22)+50</f>
-        <v>62.8896377422072</v>
+        <v>61.8330566753616</v>
       </c>
       <c r="H15" s="0"/>
     </row>
@@ -781,12 +847,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">SUM(B4:J4)</f>
-        <v>29.5833333333333</v>
+        <f aca="false">SUM(B4:L4)</f>
+        <v>44.25</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>14.7916666666667</v>
+        <v>18.1022727272727</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>4</v>
@@ -796,11 +862,11 @@
       </c>
       <c r="F16" s="11" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>18.7916666666667</v>
+        <v>22.1022727272727</v>
       </c>
       <c r="G16" s="12" t="n">
         <f aca="false">((F16-F22)*50)/(F23-F22)+50</f>
-        <v>66.9755686604886</v>
+        <v>70.9746265117382</v>
       </c>
       <c r="H16" s="0"/>
     </row>
@@ -809,12 +875,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">SUM(B5:J5)</f>
-        <v>30.4166666666667</v>
+        <f aca="false">SUM(B5:L5)</f>
+        <v>43.0833333333333</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>15.2083333333333</v>
+        <v>17.625</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>8.5</v>
@@ -824,11 +890,11 @@
       </c>
       <c r="F17" s="11" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>23.7083333333333</v>
+        <v>26.125</v>
       </c>
       <c r="G17" s="12" t="n">
         <f aca="false">((F17-F22)*50)/(F23-F22)+50</f>
-        <v>71.9460825610784</v>
+        <v>75.171923168129</v>
       </c>
       <c r="H17" s="0"/>
     </row>
@@ -837,12 +903,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">SUM(B6:J6)</f>
-        <v>82.9166666666667</v>
+        <f aca="false">SUM(B6:L6)</f>
+        <v>97.5833333333333</v>
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>41.4583333333333</v>
+        <v>39.9204545454545</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>10</v>
@@ -852,7 +918,7 @@
       </c>
       <c r="F18" s="11" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>51.4583333333333</v>
+        <v>49.9204545454546</v>
       </c>
       <c r="G18" s="12" t="n">
         <f aca="false">((F18-F22)*50)/(F23-F22)+50</f>
@@ -865,12 +931,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">SUM(B7:J7)</f>
+        <f aca="false">SUM(B7:L7)</f>
         <v>13.5</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>6.75</v>
+        <v>5.52272727272727</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>6</v>
@@ -880,11 +946,11 @@
       </c>
       <c r="F19" s="11" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>12.75</v>
+        <v>11.5227272727273</v>
       </c>
       <c r="G19" s="12" t="n">
         <f aca="false">((F19-F22)*50)/(F23-F22)+50</f>
-        <v>60.8677337826453</v>
+        <v>59.9359734408347</v>
       </c>
       <c r="H19" s="0"/>
     </row>
@@ -893,12 +959,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">SUM(B8:J8)</f>
-        <v>35.4166666666667</v>
+        <f aca="false">SUM(B8:L8)</f>
+        <v>48.0833333333333</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>17.7083333333333</v>
+        <v>19.6704545454545</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>8.5</v>
@@ -908,11 +974,11 @@
       </c>
       <c r="F20" s="11" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>26.2083333333333</v>
+        <v>28.1704545454545</v>
       </c>
       <c r="G20" s="12" t="n">
         <f aca="false">((F20-F22)*50)/(F23-F22)+50</f>
-        <v>74.4734625105307</v>
+        <v>77.3061418069718</v>
       </c>
       <c r="H20" s="0"/>
     </row>
@@ -921,12 +987,12 @@
         <v>8</v>
       </c>
       <c r="B21" s="10" t="n">
-        <f aca="false">SUM(B9:J9)</f>
+        <f aca="false">SUM(B9:L9)</f>
         <v>14.75</v>
       </c>
       <c r="C21" s="10" t="n">
         <f aca="false">(B21*45)/B11</f>
-        <v>7.375</v>
+        <v>6.03409090909091</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>5</v>
@@ -936,11 +1002,11 @@
       </c>
       <c r="F21" s="11" t="n">
         <f aca="false">C21+D21+E21</f>
-        <v>12.375</v>
+        <v>11.0340909090909</v>
       </c>
       <c r="G21" s="12" t="n">
         <f aca="false">((F21-F22)*50)/(F23-F22)+50</f>
-        <v>60.4886267902275</v>
+        <v>59.4261323215556</v>
       </c>
       <c r="H21" s="0"/>
     </row>
@@ -949,7 +1015,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="13" t="n">
         <f aca="false">MIN(F14:F21)</f>
@@ -962,11 +1028,11 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="13" t="n">
         <f aca="false">MAX(F14:F21)</f>
-        <v>51.4583333333333</v>
+        <v>49.9204545454546</v>
       </c>
       <c r="G23" s="0"/>
     </row>

--- a/110/110.xlsx
+++ b/110/110.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 13</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -345,7 +348,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,7 +404,9 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -446,6 +451,9 @@
       <c r="L2" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="M2" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -486,6 +494,9 @@
       <c r="L3" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="M3" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -530,6 +541,9 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
+      <c r="M4" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -574,6 +588,9 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
+      <c r="M5" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -618,6 +635,9 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
+      <c r="M6" s="3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -658,6 +678,9 @@
       <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -702,6 +725,9 @@
         <f aca="false">(2/3)*10</f>
         <v>6.66666666666667</v>
       </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -744,19 +770,22 @@
       <c r="L9" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="M9" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -767,22 +796,22 @@
         <v>0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="0"/>
     </row>
@@ -791,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">SUM(B2:L2)</f>
+        <f aca="false">SUM(B2:M2)</f>
         <v>0</v>
       </c>
       <c r="C14" s="10" t="n">
@@ -819,12 +848,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">SUM(B3:L3)</f>
+        <f aca="false">SUM(B3:M3)</f>
         <v>15.5</v>
       </c>
       <c r="C15" s="10" t="n">
         <f aca="false">(B15*45)/B11</f>
-        <v>6.34090909090909</v>
+        <v>5.8125</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>7</v>
@@ -834,11 +863,11 @@
       </c>
       <c r="F15" s="11" t="n">
         <f aca="false">C15+D15+E15</f>
-        <v>13.3409090909091</v>
+        <v>12.8125</v>
       </c>
       <c r="G15" s="12" t="n">
         <f aca="false">((F15-F22)*50)/(F23-F22)+50</f>
-        <v>61.8330566753616</v>
+        <v>60.9286165508528</v>
       </c>
       <c r="H15" s="0"/>
     </row>
@@ -847,12 +876,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">SUM(B4:L4)</f>
+        <f aca="false">SUM(B4:M4)</f>
         <v>44.25</v>
       </c>
       <c r="C16" s="10" t="n">
         <f aca="false">(B16*45)/B11</f>
-        <v>18.1022727272727</v>
+        <v>16.59375</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>4</v>
@@ -862,11 +891,11 @@
       </c>
       <c r="F16" s="11" t="n">
         <f aca="false">C16+D16+E16</f>
-        <v>22.1022727272727</v>
+        <v>20.59375</v>
       </c>
       <c r="G16" s="12" t="n">
         <f aca="false">((F16-F22)*50)/(F23-F22)+50</f>
-        <v>70.9746265117382</v>
+        <v>68.7934301958307</v>
       </c>
       <c r="H16" s="0"/>
     </row>
@@ -875,12 +904,12 @@
         <v>4</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">SUM(B5:L5)</f>
+        <f aca="false">SUM(B5:M5)</f>
         <v>43.0833333333333</v>
       </c>
       <c r="C17" s="10" t="n">
         <f aca="false">(B17*45)/B11</f>
-        <v>17.625</v>
+        <v>16.15625</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>8.5</v>
@@ -890,11 +919,11 @@
       </c>
       <c r="F17" s="11" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>26.125</v>
+        <v>24.65625</v>
       </c>
       <c r="G17" s="12" t="n">
         <f aca="false">((F17-F22)*50)/(F23-F22)+50</f>
-        <v>75.171923168129</v>
+        <v>72.8995578016425</v>
       </c>
       <c r="H17" s="0"/>
     </row>
@@ -903,12 +932,12 @@
         <v>5</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">SUM(B6:L6)</f>
-        <v>97.5833333333333</v>
+        <f aca="false">SUM(B6:M6)</f>
+        <v>110.583333333333</v>
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">(B18*45)/B11</f>
-        <v>39.9204545454545</v>
+        <v>41.46875</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>10</v>
@@ -918,7 +947,7 @@
       </c>
       <c r="F18" s="11" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>49.9204545454546</v>
+        <v>51.46875</v>
       </c>
       <c r="G18" s="12" t="n">
         <f aca="false">((F18-F22)*50)/(F23-F22)+50</f>
@@ -931,12 +960,12 @@
         <v>6</v>
       </c>
       <c r="B19" s="10" t="n">
-        <f aca="false">SUM(B7:L7)</f>
+        <f aca="false">SUM(B7:M7)</f>
         <v>13.5</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">(B19*45)/B11</f>
-        <v>5.52272727272727</v>
+        <v>5.0625</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>6</v>
@@ -946,11 +975,11 @@
       </c>
       <c r="F19" s="11" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>11.5227272727273</v>
+        <v>11.0625</v>
       </c>
       <c r="G19" s="12" t="n">
         <f aca="false">((F19-F22)*50)/(F23-F22)+50</f>
-        <v>59.9359734408347</v>
+        <v>59.159823120657</v>
       </c>
       <c r="H19" s="0"/>
     </row>
@@ -959,12 +988,12 @@
         <v>7</v>
       </c>
       <c r="B20" s="10" t="n">
-        <f aca="false">SUM(B8:L8)</f>
+        <f aca="false">SUM(B8:M8)</f>
         <v>48.0833333333333</v>
       </c>
       <c r="C20" s="10" t="n">
         <f aca="false">(B20*45)/B11</f>
-        <v>19.6704545454545</v>
+        <v>18.03125</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>8.5</v>
@@ -974,11 +1003,11 @@
       </c>
       <c r="F20" s="11" t="n">
         <f aca="false">C20+D20+E20</f>
-        <v>28.1704545454545</v>
+        <v>26.53125</v>
       </c>
       <c r="G20" s="12" t="n">
         <f aca="false">((F20-F22)*50)/(F23-F22)+50</f>
-        <v>77.3061418069718</v>
+        <v>74.7946936197094</v>
       </c>
       <c r="H20" s="0"/>
     </row>
@@ -987,12 +1016,12 @@
         <v>8</v>
       </c>
       <c r="B21" s="10" t="n">
-        <f aca="false">SUM(B9:L9)</f>
+        <f aca="false">SUM(B9:M9)</f>
         <v>14.75</v>
       </c>
       <c r="C21" s="10" t="n">
         <f aca="false">(B21*45)/B11</f>
-        <v>6.03409090909091</v>
+        <v>5.53125</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>5</v>
@@ -1002,11 +1031,11 @@
       </c>
       <c r="F21" s="11" t="n">
         <f aca="false">C21+D21+E21</f>
-        <v>11.0340909090909</v>
+        <v>10.53125</v>
       </c>
       <c r="G21" s="12" t="n">
         <f aca="false">((F21-F22)*50)/(F23-F22)+50</f>
-        <v>59.4261323215556</v>
+        <v>58.6228679722047</v>
       </c>
       <c r="H21" s="0"/>
     </row>
@@ -1015,7 +1044,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" s="13" t="n">
         <f aca="false">MIN(F14:F21)</f>
@@ -1028,11 +1057,11 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13" t="n">
         <f aca="false">MAX(F14:F21)</f>
-        <v>49.9204545454546</v>
+        <v>51.46875</v>
       </c>
       <c r="G23" s="0"/>
     </row>

--- a/110/110.xlsx
+++ b/110/110.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -867,7 +867,7 @@
       </c>
       <c r="G15" s="12" t="n">
         <f aca="false">((F15-F22)*50)/(F23-F22)+50</f>
-        <v>60.9286165508528</v>
+        <v>55.7227919285478</v>
       </c>
       <c r="H15" s="0"/>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="G16" s="12" t="n">
         <f aca="false">((F16-F22)*50)/(F23-F22)+50</f>
-        <v>68.7934301958307</v>
+        <v>59.8412173337744</v>
       </c>
       <c r="H16" s="0"/>
     </row>
@@ -915,15 +915,15 @@
         <v>8.5</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F17" s="11" t="n">
         <f aca="false">C17+D17+E17</f>
-        <v>24.65625</v>
+        <v>59.65625</v>
       </c>
       <c r="G17" s="12" t="n">
         <f aca="false">((F17-F22)*50)/(F23-F22)+50</f>
-        <v>72.8995578016425</v>
+        <v>80.5160436652332</v>
       </c>
       <c r="H17" s="0"/>
     </row>
@@ -943,11 +943,11 @@
         <v>10</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F18" s="11" t="n">
         <f aca="false">C18+D18+E18</f>
-        <v>51.46875</v>
+        <v>96.46875</v>
       </c>
       <c r="G18" s="12" t="n">
         <f aca="false">((F18-F22)*50)/(F23-F22)+50</f>
@@ -971,15 +971,15 @@
         <v>6</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F19" s="11" t="n">
         <f aca="false">C19+D19+E19</f>
-        <v>11.0625</v>
+        <v>51.0625</v>
       </c>
       <c r="G19" s="12" t="n">
         <f aca="false">((F19-F22)*50)/(F23-F22)+50</f>
-        <v>59.159823120657</v>
+        <v>75.9675818723123</v>
       </c>
       <c r="H19" s="0"/>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G20" s="12" t="n">
         <f aca="false">((F20-F22)*50)/(F23-F22)+50</f>
-        <v>74.7946936197094</v>
+        <v>62.9837909361561</v>
       </c>
       <c r="H20" s="0"/>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G21" s="12" t="n">
         <f aca="false">((F21-F22)*50)/(F23-F22)+50</f>
-        <v>58.6228679722047</v>
+        <v>54.5153820707906</v>
       </c>
       <c r="H21" s="0"/>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F23" s="13" t="n">
         <f aca="false">MAX(F14:F21)</f>
-        <v>51.46875</v>
+        <v>96.46875</v>
       </c>
       <c r="G23" s="0"/>
     </row>
